--- a/data/trans_orig/IP2001-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD423F93-7187-4DBC-A9ED-162C7FB855B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3311A549-5AB6-4AF8-AE4D-B2D3C3980CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBD83979-9B61-4198-A4E8-67C399E1F330}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1925E5F-62A4-4ED6-B248-9CC97F1691F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="296">
   <si>
     <t>Menores según si tienen caries en 2007 (Tasa respuesta: 93,96%)</t>
   </si>
@@ -104,7 +104,7 @@
     <t>15,83%</t>
   </si>
   <si>
-    <t>9,93%</t>
+    <t>9,8%</t>
   </si>
   <si>
     <t>22,99%</t>
@@ -116,16 +116,16 @@
     <t>9,67%</t>
   </si>
   <si>
-    <t>22,16%</t>
+    <t>21,44%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>84,17%</t>
@@ -134,13 +134,13 @@
     <t>77,01%</t>
   </si>
   <si>
-    <t>90,07%</t>
+    <t>90,2%</t>
   </si>
   <si>
     <t>84,89%</t>
   </si>
   <si>
-    <t>77,84%</t>
+    <t>78,56%</t>
   </si>
   <si>
     <t>90,33%</t>
@@ -149,10 +149,10 @@
     <t>84,54%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,55 +161,55 @@
     <t>6,97%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>91,06%</t>
   </si>
   <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>92,11%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -218,727 +218,715 @@
     <t>6,81%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>3,33%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2016 (Tasa respuesta: 93,46%)</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2015 (Tasa respuesta: 93,46%)</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>95,8%</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C423B6DD-B2A3-47C9-BDC7-EC105A084194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD58A00-5F41-4B5B-97B7-993CC93AED04}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2251,7 +2239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376EC2B7-7339-4603-899E-1F9BECEBB9D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C2D356-40CA-4AF2-9EBE-E8E962312FAD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2870,7 +2858,7 @@
         <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2873,13 @@
         <v>148175</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>210</v>
@@ -2900,13 +2888,13 @@
         <v>149017</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>421</v>
@@ -2915,13 +2903,13 @@
         <v>297192</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2977,13 @@
         <v>65958</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3004,13 +2992,13 @@
         <v>61495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -3019,13 +3007,13 @@
         <v>127453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3028,13 @@
         <v>634906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>861</v>
@@ -3055,13 +3043,13 @@
         <v>597725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>1771</v>
@@ -3070,13 +3058,13 @@
         <v>1232632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764E74EB-DDD2-4552-80FA-4BB2C659C3C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D4CFB-6DF9-47C2-BA1D-BCC9FC275443}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3169,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3413,13 +3401,13 @@
         <v>9846</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3428,13 +3416,13 @@
         <v>10425</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -3443,13 +3431,13 @@
         <v>20271</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3452,13 @@
         <v>57528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -3479,13 +3467,13 @@
         <v>46389</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>152</v>
@@ -3494,13 +3482,13 @@
         <v>103917</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3556,13 @@
         <v>45757</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -3583,13 +3571,13 @@
         <v>48860</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -3598,13 +3586,13 @@
         <v>94616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3607,13 @@
         <v>417382</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>586</v>
@@ -3634,13 +3622,13 @@
         <v>390475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>1181</v>
@@ -3649,13 +3637,13 @@
         <v>807858</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3711,13 @@
         <v>12351</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3738,13 +3726,13 @@
         <v>9897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3753,13 +3741,13 @@
         <v>22249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3762,13 @@
         <v>156741</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>229</v>
@@ -3789,13 +3777,13 @@
         <v>152806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>455</v>
@@ -3804,13 +3792,13 @@
         <v>309547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,10 +3869,10 @@
         <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -3893,13 +3881,13 @@
         <v>69182</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -3908,13 +3896,13 @@
         <v>137136</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,10 +3920,10 @@
         <v>123</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>885</v>
@@ -3944,13 +3932,13 @@
         <v>589670</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>1788</v>
@@ -3959,13 +3947,13 @@
         <v>1221321</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,7 +4029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911EFD0E-5370-4981-86E4-5B47D66F2FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69980CC-DA55-4C6F-80E5-C0B69423A7A5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4058,7 +4046,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4314,13 +4302,13 @@
         <v>2770</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4335,7 +4323,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4344,13 +4332,13 @@
         <v>2770</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4353,13 @@
         <v>54092</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -4383,7 +4371,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4395,13 +4383,13 @@
         <v>104246</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4457,13 @@
         <v>26854</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4484,13 +4472,13 @@
         <v>21777</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4499,13 +4487,13 @@
         <v>48631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,28 +4508,28 @@
         <v>453394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>594</v>
       </c>
       <c r="I11" s="7">
-        <v>419913</v>
+        <v>419912</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>1189</v>
@@ -4550,13 +4538,13 @@
         <v>873307</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,7 +4571,7 @@
         <v>626</v>
       </c>
       <c r="I12" s="7">
-        <v>441690</v>
+        <v>441689</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>18</v>
@@ -4624,13 +4612,13 @@
         <v>13061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4639,13 +4627,13 @@
         <v>7205</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -4654,13 +4642,13 @@
         <v>20266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4663,13 @@
         <v>160301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
@@ -4690,13 +4678,13 @@
         <v>141721</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>431</v>
@@ -4705,13 +4693,13 @@
         <v>302022</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4767,13 @@
         <v>42685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -4794,13 +4782,13 @@
         <v>28982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -4809,13 +4797,13 @@
         <v>71667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,28 +4818,28 @@
         <v>667787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
       </c>
       <c r="I17" s="7">
-        <v>612959</v>
+        <v>612958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>1765</v>
@@ -4860,13 +4848,13 @@
         <v>1280745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,7 +4881,7 @@
         <v>918</v>
       </c>
       <c r="I18" s="7">
-        <v>641941</v>
+        <v>641940</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>18</v>

--- a/data/trans_orig/IP2001-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3311A549-5AB6-4AF8-AE4D-B2D3C3980CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{244B81D3-EA31-47D6-AB43-20D1927D48CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1925E5F-62A4-4ED6-B248-9CC97F1691F8}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{B1D2D645-1860-4CE5-ABB2-A5973663F993}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="290">
   <si>
     <t>Menores según si tienen caries en 2007 (Tasa respuesta: 93,96%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,865 +68,847 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2016 (Tasa respuesta: 93,46%)</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2016 (Tasa respuesta: 93,46%)</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD58A00-5F41-4B5B-97B7-993CC93AED04}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF02768-5215-4675-BCF5-48103069B488}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1456,10 +1438,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>13138</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1471,81 +1453,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12769</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>25907</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>73805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="I5" s="7">
+        <v>67897</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>141702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,151 +1540,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>86943</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>80666</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>167609</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>12769</v>
+        <v>35169</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>13138</v>
+        <v>31376</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
+        <v>100</v>
+      </c>
+      <c r="N7" s="7">
+        <v>66545</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="7">
-        <v>25907</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>102</v>
+        <v>541</v>
       </c>
       <c r="D8" s="7">
-        <v>67897</v>
+        <v>358430</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>110</v>
+        <v>631</v>
       </c>
       <c r="I8" s="7">
-        <v>73805</v>
+        <v>418762</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>212</v>
+        <v>1172</v>
       </c>
       <c r="N8" s="7">
-        <v>141702</v>
+        <v>777192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,153 +1695,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>593</v>
       </c>
       <c r="D9" s="7">
-        <v>80666</v>
+        <v>393599</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>130</v>
+        <v>679</v>
       </c>
       <c r="I9" s="7">
-        <v>86943</v>
+        <v>450138</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>251</v>
+        <v>1272</v>
       </c>
       <c r="N9" s="7">
-        <v>167609</v>
+        <v>843737</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>31376</v>
+        <v>5870</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>35169</v>
+        <v>9942</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>66545</v>
+        <v>15812</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>631</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7">
-        <v>418762</v>
+        <v>155437</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>541</v>
+        <v>204</v>
       </c>
       <c r="I11" s="7">
-        <v>358430</v>
+        <v>136060</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1172</v>
+        <v>430</v>
       </c>
       <c r="N11" s="7">
-        <v>777192</v>
+        <v>291496</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,153 +1850,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>679</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>450138</v>
+        <v>161307</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>593</v>
+        <v>218</v>
       </c>
       <c r="I12" s="7">
-        <v>393599</v>
+        <v>146002</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1272</v>
+        <v>453</v>
       </c>
       <c r="N12" s="7">
-        <v>843737</v>
+        <v>307308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7">
-        <v>9942</v>
+        <v>54177</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="I13" s="7">
-        <v>5870</v>
+        <v>54087</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="N13" s="7">
-        <v>15812</v>
+        <v>108265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>204</v>
+        <v>877</v>
       </c>
       <c r="D14" s="7">
-        <v>136060</v>
+        <v>587672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>226</v>
+        <v>937</v>
       </c>
       <c r="I14" s="7">
-        <v>155437</v>
+        <v>622718</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>430</v>
+        <v>1814</v>
       </c>
       <c r="N14" s="7">
-        <v>291496</v>
+        <v>1210389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,216 +2005,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>218</v>
+        <v>958</v>
       </c>
       <c r="D15" s="7">
-        <v>146002</v>
+        <v>641849</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>235</v>
+        <v>1018</v>
       </c>
       <c r="I15" s="7">
-        <v>161307</v>
+        <v>676805</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>453</v>
+        <v>1976</v>
       </c>
       <c r="N15" s="7">
-        <v>307308</v>
+        <v>1318654</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>81</v>
-      </c>
-      <c r="D16" s="7">
-        <v>54087</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>81</v>
-      </c>
-      <c r="I16" s="7">
-        <v>54177</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>162</v>
-      </c>
-      <c r="N16" s="7">
-        <v>108264</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>938</v>
-      </c>
-      <c r="D17" s="7">
-        <v>623444</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>877</v>
-      </c>
-      <c r="I17" s="7">
-        <v>587672</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1815</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1211116</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1019</v>
-      </c>
-      <c r="D18" s="7">
-        <v>677531</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>958</v>
-      </c>
-      <c r="I18" s="7">
-        <v>641849</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1977</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1319380</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2239,8 +2071,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C2D356-40CA-4AF2-9EBE-E8E962312FAD}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4F0881-5A66-477D-8B97-63750EC9098F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2256,7 +2088,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2357,96 +2189,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10379</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13968</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>24347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>77633</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68657</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>146290</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,151 +2291,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>88012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I6" s="7">
+        <v>82625</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>170637</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>13968</v>
+        <v>45040</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I7" s="7">
-        <v>10379</v>
+        <v>44884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="N7" s="7">
-        <v>24347</v>
+        <v>89924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>97</v>
+        <v>539</v>
       </c>
       <c r="D8" s="7">
-        <v>68657</v>
+        <v>371076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>112</v>
+        <v>601</v>
       </c>
       <c r="I8" s="7">
-        <v>77633</v>
+        <v>417433</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>209</v>
+        <v>1140</v>
       </c>
       <c r="N8" s="7">
-        <v>146290</v>
+        <v>788509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,153 +2446,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>602</v>
       </c>
       <c r="D9" s="7">
-        <v>82625</v>
+        <v>416116</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>128</v>
+        <v>664</v>
       </c>
       <c r="I9" s="7">
-        <v>88012</v>
+        <v>462317</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>244</v>
+        <v>1266</v>
       </c>
       <c r="N9" s="7">
-        <v>170637</v>
+        <v>878433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>44884</v>
+        <v>6076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>45040</v>
+        <v>7106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>89924</v>
+        <v>13182</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>601</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7">
-        <v>417433</v>
+        <v>149017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>539</v>
+        <v>211</v>
       </c>
       <c r="I11" s="7">
-        <v>371076</v>
+        <v>148175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>1140</v>
+        <v>421</v>
       </c>
       <c r="N11" s="7">
-        <v>788509</v>
+        <v>297192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,153 +2601,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>664</v>
+        <v>219</v>
       </c>
       <c r="D12" s="7">
-        <v>462317</v>
+        <v>155093</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>602</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>416116</v>
+        <v>155281</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1266</v>
+        <v>439</v>
       </c>
       <c r="N12" s="7">
-        <v>878433</v>
+        <v>310374</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>7106</v>
+        <v>61495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I13" s="7">
-        <v>6076</v>
+        <v>65958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="N13" s="7">
-        <v>13182</v>
+        <v>127453</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>211</v>
+        <v>861</v>
       </c>
       <c r="D14" s="7">
-        <v>148175</v>
+        <v>597726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
-        <v>210</v>
+        <v>909</v>
       </c>
       <c r="I14" s="7">
-        <v>149017</v>
+        <v>634265</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
-        <v>421</v>
+        <v>1770</v>
       </c>
       <c r="N14" s="7">
-        <v>297192</v>
+        <v>1231991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,216 +2756,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>949</v>
       </c>
       <c r="D15" s="7">
-        <v>155281</v>
+        <v>659221</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>219</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>155093</v>
+        <v>700223</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>439</v>
+        <v>1949</v>
       </c>
       <c r="N15" s="7">
-        <v>310374</v>
+        <v>1359444</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>91</v>
-      </c>
-      <c r="D16" s="7">
-        <v>65958</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="7">
-        <v>88</v>
-      </c>
-      <c r="I16" s="7">
-        <v>61495</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M16" s="7">
-        <v>179</v>
-      </c>
-      <c r="N16" s="7">
-        <v>127453</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>910</v>
-      </c>
-      <c r="D17" s="7">
-        <v>634906</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="7">
-        <v>861</v>
-      </c>
-      <c r="I17" s="7">
-        <v>597725</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1771</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1232632</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1001</v>
-      </c>
-      <c r="D18" s="7">
-        <v>700864</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>949</v>
-      </c>
-      <c r="I18" s="7">
-        <v>659220</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1950</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1360085</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3140,8 +2822,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4D4CFB-6DF9-47C2-BA1D-BCC9FC275443}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F9CD72-7AD9-427A-ACCB-79169A281CF2}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3157,7 +2839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3258,88 +2940,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10425</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9846</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20271</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="D5" s="7">
+        <v>46389</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="I5" s="7">
+        <v>57528</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="N5" s="7">
+        <v>103917</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,147 +3042,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56814</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I6" s="7">
+        <v>67374</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="N6" s="7">
+        <v>124188</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>9846</v>
+        <v>48860</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="I7" s="7">
-        <v>10425</v>
+        <v>45757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="N7" s="7">
-        <v>20271</v>
+        <v>94616</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="D8" s="7">
-        <v>57528</v>
+        <v>390475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="I8" s="7">
-        <v>46389</v>
+        <v>417382</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
-        <v>152</v>
+        <v>1181</v>
       </c>
       <c r="N8" s="7">
-        <v>103917</v>
+        <v>807858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,153 +3197,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>97</v>
+        <v>661</v>
       </c>
       <c r="D9" s="7">
-        <v>67374</v>
+        <v>439335</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>85</v>
+        <v>658</v>
       </c>
       <c r="I9" s="7">
-        <v>56814</v>
+        <v>463139</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>182</v>
+        <v>1319</v>
       </c>
       <c r="N9" s="7">
-        <v>124188</v>
+        <v>902474</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>45757</v>
+        <v>9897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>48860</v>
+        <v>12351</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>94616</v>
+        <v>22249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>595</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>417382</v>
+        <v>152806</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
-        <v>586</v>
+        <v>226</v>
       </c>
       <c r="I11" s="7">
-        <v>390475</v>
+        <v>156741</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
-        <v>1181</v>
+        <v>455</v>
       </c>
       <c r="N11" s="7">
-        <v>807858</v>
+        <v>309547</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,153 +3352,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>658</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>463139</v>
+        <v>162703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>661</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>439335</v>
+        <v>169092</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1319</v>
+        <v>486</v>
       </c>
       <c r="N12" s="7">
-        <v>902474</v>
+        <v>331796</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>12351</v>
+        <v>69182</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="7">
+        <v>95</v>
+      </c>
+      <c r="I13" s="7">
+        <v>67954</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" s="7">
         <v>199</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9897</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M13" s="7">
-        <v>31</v>
-      </c>
       <c r="N13" s="7">
-        <v>22249</v>
+        <v>137136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>226</v>
+        <v>885</v>
       </c>
       <c r="D14" s="7">
-        <v>156741</v>
+        <v>589670</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>903</v>
       </c>
       <c r="I14" s="7">
-        <v>152806</v>
+        <v>631651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
-        <v>455</v>
+        <v>1788</v>
       </c>
       <c r="N14" s="7">
-        <v>309547</v>
+        <v>1221321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,216 +3507,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>989</v>
       </c>
       <c r="D15" s="7">
-        <v>169092</v>
+        <v>658852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>243</v>
+        <v>998</v>
       </c>
       <c r="I15" s="7">
-        <v>162703</v>
+        <v>699605</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>486</v>
+        <v>1987</v>
       </c>
       <c r="N15" s="7">
-        <v>331796</v>
+        <v>1358457</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>95</v>
-      </c>
-      <c r="D16" s="7">
-        <v>67954</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="7">
-        <v>104</v>
-      </c>
-      <c r="I16" s="7">
-        <v>69182</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M16" s="7">
-        <v>199</v>
-      </c>
-      <c r="N16" s="7">
-        <v>137136</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>903</v>
-      </c>
-      <c r="D17" s="7">
-        <v>631651</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="7">
-        <v>885</v>
-      </c>
-      <c r="I17" s="7">
-        <v>589670</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1788</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1221321</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>998</v>
-      </c>
-      <c r="D18" s="7">
-        <v>699605</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>989</v>
-      </c>
-      <c r="I18" s="7">
-        <v>658852</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1987</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1358457</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4029,8 +3573,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69980CC-DA55-4C6F-80E5-C0B69423A7A5}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39489E7E-1AC0-47EB-9521-B8AB00F2CA2F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4046,7 +3590,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4149,94 +3693,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2956</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2956</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53699</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>56847</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>110546</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,151 +3793,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>59803</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>113502</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>2770</v>
+        <v>21267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>28021</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="N7" s="7">
-        <v>2770</v>
+        <v>49288</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>594</v>
       </c>
       <c r="D8" s="7">
-        <v>54092</v>
+        <v>430897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
-        <v>67</v>
+        <v>595</v>
       </c>
       <c r="I8" s="7">
-        <v>50154</v>
+        <v>476081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
-        <v>144</v>
+        <v>1189</v>
       </c>
       <c r="N8" s="7">
-        <v>104246</v>
+        <v>906977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,153 +3948,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="D9" s="7">
-        <v>56862</v>
+        <v>452164</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>504102</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>1256</v>
       </c>
       <c r="N9" s="7">
-        <v>107016</v>
+        <v>956265</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>26854</v>
+        <v>7187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>21777</v>
+        <v>13781</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>48631</v>
+        <v>20968</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>595</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>453394</v>
+        <v>139929</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
-        <v>594</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>419912</v>
+        <v>168298</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
-        <v>1189</v>
+        <v>431</v>
       </c>
       <c r="N11" s="7">
-        <v>873307</v>
+        <v>308228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,153 +4103,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>224</v>
       </c>
       <c r="D12" s="7">
-        <v>480248</v>
+        <v>147116</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>626</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>441689</v>
+        <v>182079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1256</v>
+        <v>459</v>
       </c>
       <c r="N12" s="7">
-        <v>921938</v>
+        <v>329196</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>13061</v>
+        <v>28454</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>7205</v>
+        <v>44758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="N13" s="7">
-        <v>20266</v>
+        <v>73212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>219</v>
+        <v>873</v>
       </c>
       <c r="D14" s="7">
-        <v>160301</v>
+        <v>624525</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
-        <v>212</v>
+        <v>891</v>
       </c>
       <c r="I14" s="7">
-        <v>141721</v>
+        <v>701226</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
-        <v>431</v>
+        <v>1764</v>
       </c>
       <c r="N14" s="7">
-        <v>302022</v>
+        <v>1325751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,216 +4258,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>917</v>
       </c>
       <c r="D15" s="7">
-        <v>173362</v>
+        <v>652979</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>224</v>
+        <v>945</v>
       </c>
       <c r="I15" s="7">
-        <v>148926</v>
+        <v>745984</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>459</v>
+        <v>1862</v>
       </c>
       <c r="N15" s="7">
-        <v>322288</v>
+        <v>1398963</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>54</v>
-      </c>
-      <c r="D16" s="7">
-        <v>42685</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7">
-        <v>28982</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M16" s="7">
-        <v>98</v>
-      </c>
-      <c r="N16" s="7">
-        <v>71667</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>891</v>
-      </c>
-      <c r="D17" s="7">
-        <v>667787</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H17" s="7">
-        <v>874</v>
-      </c>
-      <c r="I17" s="7">
-        <v>612958</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1765</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1280745</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>945</v>
-      </c>
-      <c r="D18" s="7">
-        <v>710472</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>918</v>
-      </c>
-      <c r="I18" s="7">
-        <v>641940</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1863</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1352412</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
